--- a/template/模板表结构设计.xlsx
+++ b/template/模板表结构设计.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Doc\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="12840" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="12840" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="模板" sheetId="2" r:id="rId2"/>
+    <sheet name="索引" sheetId="3" r:id="rId2"/>
+    <sheet name="模板" sheetId="2" r:id="rId3"/>
+    <sheet name="tUser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>数据库表大类</t>
   </si>
@@ -133,6 +135,120 @@
   </si>
   <si>
     <t>C_USERCODE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一约束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LOGINID</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_user_code</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dx_user_loginid</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tUser</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_userid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_loginId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_usercode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +265,7 @@
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="&quot;\&quot;#,##0;[Red]\-&quot;\&quot;#,##0"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -412,6 +528,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -558,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -917,8 +1041,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,8 +1353,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,14 +1371,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="99" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="100">
     <cellStyle name="20% - アクセント 1" xfId="14"/>
     <cellStyle name="20% - アクセント 2" xfId="4"/>
     <cellStyle name="20% - アクセント 3" xfId="15"/>
@@ -1305,6 +1466,7 @@
     <cellStyle name="常规 8" xfId="46"/>
     <cellStyle name="常规 9" xfId="78"/>
     <cellStyle name="常规 9 2" xfId="90"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="79"/>
     <cellStyle name="出力" xfId="42"/>
     <cellStyle name="出力 2" xfId="88"/>
@@ -1637,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1650,10 +1812,11 @@
     <col min="3" max="3" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="27.625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="23.5" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1669,15 +1832,18 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1686,9 +1852,15 @@
       <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" location="tUser!A1" display="tUser"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1696,142 +1868,370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.875" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
     </row>

--- a/template/模板表结构设计.xlsx
+++ b/template/模板表结构设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\dbtool\Publish\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>数据库表大类</t>
   </si>
@@ -147,54 +147,6 @@
   </si>
   <si>
     <t>索引名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LOGINID</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_user_code</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dx_user_loginid</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -251,6 +203,18 @@
     <t>用户编码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>loginid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ISDELETED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_LOGINID,C_ISDELETED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1374,9 +1338,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1389,13 +1350,16 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="99" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="100">
     <cellStyle name="20% - アクセント 1" xfId="14"/>
@@ -1802,7 +1766,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1843,14 +1807,11 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -1868,17 +1829,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="9" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1889,7 +1850,7 @@
       <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1897,22 +1858,11 @@
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
+      <c r="B2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1876,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1940,13 +1890,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -1988,8 +1938,8 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
+      <c r="A5" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -2090,13 +2040,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -2116,8 +2066,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15" t="s">
-        <v>39</v>
+      <c r="A3" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -2131,33 +2081,33 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>41</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>45</v>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
